--- a/TableList_17 05 2024.xlsx
+++ b/TableList_17 05 2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School_EducationPortal3.0_tableSchema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Git\School_EducationPortal3.0_tableSchema\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11715" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11715" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MstOfficeRegistration" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="MstHandicappedPercentage" sheetId="4" r:id="rId4"/>
     <sheet name="TrnSankulToSchoolMapping" sheetId="5" r:id="rId5"/>
     <sheet name="MstHandicappedType" sheetId="6" r:id="rId6"/>
-    <sheet name="TrnSchoolCloseProcess" sheetId="7" r:id="rId7"/>
-    <sheet name="TrnSchoolMergeReques" sheetId="8" r:id="rId8"/>
-    <sheet name="TrnSchoolUnmergeRequest" sheetId="14" r:id="rId9"/>
-    <sheet name="TrnSchoolVerificationProcess" sheetId="9" r:id="rId10"/>
-    <sheet name="MstCategory" sheetId="10" r:id="rId11"/>
-    <sheet name="TrnUnMappSchoolFromSankul" sheetId="11" r:id="rId12"/>
-    <sheet name="TrnSchoolSetup" sheetId="12" r:id="rId13"/>
-    <sheet name="MstSankul" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId7"/>
+    <sheet name="TrnSchoolCloseProcess" sheetId="7" r:id="rId8"/>
+    <sheet name="TrnSchoolMergeReques" sheetId="8" r:id="rId9"/>
+    <sheet name="TrnSchoolUnmergeRequest" sheetId="14" r:id="rId10"/>
+    <sheet name="TrnSchoolVerificationProcess" sheetId="9" r:id="rId11"/>
+    <sheet name="MstCategory" sheetId="10" r:id="rId12"/>
+    <sheet name="TrnUnMappSchoolFromSankul" sheetId="11" r:id="rId13"/>
+    <sheet name="TrnSchoolSetup" sheetId="12" r:id="rId14"/>
+    <sheet name="MstSankul" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2557,7 +2558,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,9 +3204,1039 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="16">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="16">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="55"/>
+      <c r="M8" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="16">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="55"/>
+      <c r="M9" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="16">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="55"/>
+      <c r="M10" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="16">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="16">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="55"/>
+      <c r="M12" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" s="16">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L13" s="55"/>
+      <c r="M13" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="16">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L14" s="55"/>
+      <c r="M14" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="16">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L15" s="55"/>
+      <c r="M15" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="16">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L16" s="55"/>
+      <c r="M16" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" s="16">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" s="55"/>
+      <c r="M17" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="16">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L18" s="55"/>
+      <c r="M18" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="16">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="16">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L20" s="55"/>
+      <c r="M20" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>376</v>
+      </c>
+      <c r="H21" s="16">
+        <v>18</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L21" s="55"/>
+      <c r="M21" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H22" s="16">
+        <v>19</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L22" s="55"/>
+      <c r="M22" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="16">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L23" s="55"/>
+      <c r="M23" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="16">
+        <v>21</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" s="16">
+        <v>22</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L25" s="55"/>
+      <c r="M25" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="16">
+        <v>23</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L26" s="55"/>
+      <c r="M26" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="16">
+        <v>24</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L27" s="55"/>
+      <c r="M27" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>376</v>
+      </c>
+      <c r="H28" s="16">
+        <v>25</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L28" s="55"/>
+      <c r="M28" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="16">
+        <v>26</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="55"/>
+      <c r="M29" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H30" s="16">
+        <v>27</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="55"/>
+      <c r="M30" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>376</v>
+      </c>
+      <c r="H31" s="16">
+        <v>28</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L31" s="55"/>
+      <c r="M31" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>376</v>
+      </c>
+      <c r="H32" s="16">
+        <v>29</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="55"/>
+      <c r="M32" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" t="s">
+        <v>376</v>
+      </c>
+      <c r="H33" s="16">
+        <v>30</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L33" s="55"/>
+      <c r="M33" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>376</v>
+      </c>
+      <c r="H34" s="16">
+        <v>31</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L34" s="55"/>
+      <c r="M34" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="16">
+        <v>32</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L35" s="55"/>
+      <c r="M35" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H36" s="16">
+        <v>33</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L36" s="55"/>
+      <c r="M36" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="16">
+        <v>34</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L37" s="55"/>
+      <c r="M37" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="16">
+        <v>35</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="55"/>
+      <c r="M38" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="L5:L38"/>
+    <mergeCell ref="H39:M39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37:F37"/>
     </sheetView>
   </sheetViews>
@@ -3878,12 +4909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,12 +5125,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+      <selection activeCell="F14" sqref="F14:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,12 +5594,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,12 +6002,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5896,8 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,7 +8034,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7236,7 +8267,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F25"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7955,10 +8986,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8630,12 +9673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9539,1034 +10582,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>397</v>
-      </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>398</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="16">
-        <v>3</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="16">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="16">
-        <v>5</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="16">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" t="s">
-        <v>376</v>
-      </c>
-      <c r="H10" s="16">
-        <v>7</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>376</v>
-      </c>
-      <c r="H11" s="16">
-        <v>8</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="55"/>
-      <c r="M11" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>376</v>
-      </c>
-      <c r="H12" s="16">
-        <v>9</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="55"/>
-      <c r="M12" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>376</v>
-      </c>
-      <c r="H13" s="16">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" s="55"/>
-      <c r="M13" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>376</v>
-      </c>
-      <c r="H14" s="16">
-        <v>11</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" t="s">
-        <v>376</v>
-      </c>
-      <c r="H15" s="16">
-        <v>12</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
-        <v>376</v>
-      </c>
-      <c r="H16" s="16">
-        <v>13</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>376</v>
-      </c>
-      <c r="H17" s="16">
-        <v>14</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L17" s="55"/>
-      <c r="M17" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>376</v>
-      </c>
-      <c r="H18" s="16">
-        <v>15</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>376</v>
-      </c>
-      <c r="H19" s="16">
-        <v>16</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L19" s="55"/>
-      <c r="M19" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>376</v>
-      </c>
-      <c r="H20" s="16">
-        <v>17</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L20" s="55"/>
-      <c r="M20" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" t="s">
-        <v>376</v>
-      </c>
-      <c r="H21" s="16">
-        <v>18</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>376</v>
-      </c>
-      <c r="H22" s="16">
-        <v>19</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L22" s="55"/>
-      <c r="M22" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>376</v>
-      </c>
-      <c r="H23" s="16">
-        <v>20</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L23" s="55"/>
-      <c r="M23" s="31" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H24" s="16">
-        <v>21</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L24" s="55"/>
-      <c r="M24" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>376</v>
-      </c>
-      <c r="H25" s="16">
-        <v>22</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="16">
-        <v>23</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L26" s="55"/>
-      <c r="M26" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="16">
-        <v>24</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L27" s="55"/>
-      <c r="M27" s="31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" s="16">
-        <v>25</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L28" s="55"/>
-      <c r="M28" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="16">
-        <v>26</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="55"/>
-      <c r="M29" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" t="s">
-        <v>376</v>
-      </c>
-      <c r="H30" s="16">
-        <v>27</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="55"/>
-      <c r="M30" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>376</v>
-      </c>
-      <c r="H31" s="16">
-        <v>28</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L31" s="55"/>
-      <c r="M31" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>254</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>376</v>
-      </c>
-      <c r="H32" s="16">
-        <v>29</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" t="s">
-        <v>376</v>
-      </c>
-      <c r="H33" s="16">
-        <v>30</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L33" s="55"/>
-      <c r="M33" s="31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>376</v>
-      </c>
-      <c r="H34" s="16">
-        <v>31</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L34" s="55"/>
-      <c r="M34" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="16">
-        <v>32</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L35" s="55"/>
-      <c r="M35" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="16">
-        <v>33</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L36" s="55"/>
-      <c r="M36" s="31" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="16">
-        <v>34</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="L37" s="55"/>
-      <c r="M37" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="16">
-        <v>35</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="55"/>
-      <c r="M38" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="L5:L38"/>
-    <mergeCell ref="H39:M39"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>